--- a/src/test/resources/nftdata.xlsx
+++ b/src/test/resources/nftdata.xlsx
@@ -125,19 +125,19 @@
     <t>image</t>
   </si>
   <si>
-    <t>/tmp/extracted-2071300566884298460/5214410288.jpg</t>
+    <t>/tmp/extracted-455858064847632893/5214410288.jpg</t>
   </si>
   <si>
     <t>5214410288.jpg</t>
   </si>
   <si>
-    <t>/tmp/extracted-2071300566884298460/5214410289.jpg</t>
+    <t>/tmp/extracted-455858064847632893/5214410289.jpg</t>
   </si>
   <si>
     <t>5214410289.jpg</t>
   </si>
   <si>
-    <t>/tmp/extracted-2071300566884298460/5214410290.jpg</t>
+    <t>/tmp/extracted-455858064847632893/5214410290.jpg</t>
   </si>
   <si>
     <t>5214410290.jpg</t>
@@ -1291,7 +1291,7 @@
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3"/>
